--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -987,8 +987,8 @@
   </sheetPr>
   <dimension ref="A1:AH210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE167" activeCellId="0" sqref="AE167"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N59" activeCellId="0" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="8" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,6 +1973,9 @@
       </c>
       <c r="K59" s="7" t="n">
         <v>87</v>
+      </c>
+      <c r="M59" s="8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
